--- a/excel/src/test/resources/salary.xlsx
+++ b/excel/src/test/resources/salary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>工资ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,14 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他应减款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他应赠款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工龄工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +281,35 @@
   </si>
   <si>
     <t>标准日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年2月5日 12:24</t>
+  </si>
+  <si>
+    <t>2014年2月5日 23点12分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>personnel</t>
+  </si>
+  <si>
+    <t>product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,7 +723,7 @@
     <col min="15" max="15" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,39 +746,42 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="B2" s="3">
         <v>201401</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3">
         <v>1683</v>
@@ -771,12 +795,8 @@
       <c r="G2" s="3">
         <v>369.58</v>
       </c>
-      <c r="H2" s="3">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3">
-        <v>50</v>
-      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3">
         <v>200</v>
       </c>
@@ -790,21 +810,24 @@
         <v>3200.85</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O2" s="5">
         <v>42450</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>201402</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3">
         <v>1683</v>
@@ -818,12 +841,8 @@
       <c r="G3" s="3">
         <v>569.38</v>
       </c>
-      <c r="H3" s="3">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3">
         <v>200</v>
       </c>
@@ -837,21 +856,24 @@
         <v>3200.85</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O3" s="5">
         <v>42451</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>201403</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3">
         <v>1683</v>
@@ -865,9 +887,7 @@
       <c r="G4" s="3">
         <v>236.5</v>
       </c>
-      <c r="H4" s="3">
-        <v>10</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>0</v>
       </c>
@@ -884,21 +904,21 @@
         <v>3522.12</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O4" s="5">
         <v>42452.517650462964</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>201404</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
         <v>1683</v>
@@ -912,11 +932,11 @@
       <c r="G5" s="3">
         <v>568</v>
       </c>
-      <c r="H5" s="3">
-        <v>10</v>
+      <c r="H5" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I5" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
         <v>500</v>
@@ -931,21 +951,21 @@
         <v>3522.12</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O5" s="5">
         <v>42453.999305555553</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3">
         <v>201405</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3">
         <v>1683</v>
@@ -959,11 +979,11 @@
       <c r="G6" s="3">
         <v>125.36</v>
       </c>
-      <c r="H6" s="3">
-        <v>10</v>
+      <c r="H6" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I6" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
         <v>500</v>
@@ -978,21 +998,21 @@
         <v>8200.36</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O6" s="5">
         <v>42454.999988425923</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
         <v>201406</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3">
         <v>1683</v>
@@ -1006,11 +1026,11 @@
       <c r="G7" s="3">
         <v>369.58</v>
       </c>
-      <c r="H7" s="3">
-        <v>10</v>
+      <c r="H7" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I7" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3">
         <v>500</v>
@@ -1025,21 +1045,21 @@
         <v>3200.85</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O7" s="5">
         <v>42455</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3">
         <v>201407</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3">
         <v>1683</v>
@@ -1053,11 +1073,11 @@
       <c r="G8" s="3">
         <v>369.58</v>
       </c>
-      <c r="H8" s="3">
-        <v>10</v>
+      <c r="H8" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I8" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
@@ -1072,21 +1092,21 @@
         <v>3200.85</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O8" s="5">
         <v>42456</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3">
         <v>201408</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>1683</v>
@@ -1100,11 +1120,11 @@
       <c r="G9" s="3">
         <v>369.58</v>
       </c>
-      <c r="H9" s="3">
-        <v>10</v>
+      <c r="H9" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I9" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3">
         <v>500</v>
@@ -1119,21 +1139,21 @@
         <v>3200.85</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O9" s="5">
         <v>42457</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3">
         <v>201409</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
         <v>1683</v>
@@ -1147,11 +1167,11 @@
       <c r="G10" s="3">
         <v>369.58</v>
       </c>
-      <c r="H10" s="3">
-        <v>10</v>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I10" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
         <v>500</v>
@@ -1166,21 +1186,21 @@
         <v>3200.85</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O10" s="5">
         <v>42458</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3">
         <v>201410</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>1683</v>
@@ -1194,11 +1214,11 @@
       <c r="G11" s="3">
         <v>369.58</v>
       </c>
-      <c r="H11" s="3">
-        <v>10</v>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I11" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3">
         <v>500</v>
@@ -1213,21 +1233,21 @@
         <v>7800.85</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O11" s="5">
         <v>42459</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3">
         <v>201411</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3">
         <v>1683</v>
@@ -1241,11 +1261,11 @@
       <c r="G12" s="3">
         <v>369.58</v>
       </c>
-      <c r="H12" s="3">
-        <v>10</v>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I12" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
         <v>500</v>
@@ -1260,21 +1280,21 @@
         <v>3200.85</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O12" s="5">
         <v>42460</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3">
         <v>201412</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3">
         <v>2683</v>
@@ -1288,11 +1308,11 @@
       <c r="G13" s="3">
         <v>369.58</v>
       </c>
-      <c r="H13" s="3">
-        <v>10</v>
+      <c r="H13" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I13" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
         <v>500</v>
@@ -1307,21 +1327,21 @@
         <v>3522.12</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O13" s="5">
         <v>42461</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3">
         <v>201413</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3">
         <v>1683</v>
@@ -1335,11 +1355,11 @@
       <c r="G14" s="3">
         <v>369.58</v>
       </c>
-      <c r="H14" s="3">
-        <v>10</v>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I14" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
         <v>500</v>
@@ -1354,21 +1374,21 @@
         <v>3522.12</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O14" s="5">
         <v>42462</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3">
         <v>201414</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3">
         <v>3683</v>
@@ -1382,11 +1402,11 @@
       <c r="G15" s="3">
         <v>369.58</v>
       </c>
-      <c r="H15" s="3">
-        <v>10</v>
+      <c r="H15" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I15" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
@@ -1401,21 +1421,21 @@
         <v>3522.12</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O15" s="5">
         <v>42463</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3">
         <v>201415</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3">
         <v>1200</v>
@@ -1429,11 +1449,11 @@
       <c r="G16" s="3">
         <v>369.58</v>
       </c>
-      <c r="H16" s="3">
-        <v>10</v>
+      <c r="H16" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I16" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <v>500</v>
@@ -1448,7 +1468,7 @@
         <v>3522.12</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O16" s="5">
         <v>42464</v>
@@ -1456,13 +1476,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3">
         <v>201416</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3">
         <v>1683</v>
@@ -1476,11 +1496,11 @@
       <c r="G17" s="3">
         <v>369.58</v>
       </c>
-      <c r="H17" s="3">
-        <v>10</v>
+      <c r="H17" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I17" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
@@ -1495,7 +1515,7 @@
         <v>3522.12</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O17" s="5">
         <v>42465</v>
@@ -1503,13 +1523,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3">
         <v>201417</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3">
         <v>1683</v>
@@ -1523,11 +1543,11 @@
       <c r="G18" s="3">
         <v>369.58</v>
       </c>
-      <c r="H18" s="3">
-        <v>10</v>
+      <c r="H18" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I18" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
         <v>800</v>
@@ -1542,7 +1562,7 @@
         <v>3522.12</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O18" s="5">
         <v>42466</v>
@@ -1550,13 +1570,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3">
         <v>201418</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3">
         <v>1683</v>
@@ -1570,11 +1590,11 @@
       <c r="G19" s="3">
         <v>369.58</v>
       </c>
-      <c r="H19" s="3">
-        <v>10</v>
+      <c r="H19" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I19" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3">
         <v>700</v>
@@ -1589,7 +1609,7 @@
         <v>3522.12</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O19" s="5">
         <v>42467</v>
@@ -1597,13 +1617,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3">
         <v>201419</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3">
         <v>2300</v>
@@ -1617,11 +1637,11 @@
       <c r="G20" s="3">
         <v>369.58</v>
       </c>
-      <c r="H20" s="3">
-        <v>10</v>
+      <c r="H20" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I20" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
         <v>700</v>
@@ -1636,7 +1656,7 @@
         <v>3522.12</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O20" s="5">
         <v>42468</v>
@@ -1644,13 +1664,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3">
         <v>201420</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3">
         <v>1683</v>
@@ -1664,11 +1684,11 @@
       <c r="G21" s="3">
         <v>369.58</v>
       </c>
-      <c r="H21" s="3">
-        <v>10</v>
+      <c r="H21" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I21" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
         <v>700</v>
@@ -1683,7 +1703,7 @@
         <v>3522.12</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O21" s="5">
         <v>42469</v>
@@ -1691,13 +1711,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3">
         <v>201421</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3">
         <v>1683</v>
@@ -1711,11 +1731,11 @@
       <c r="G22" s="3">
         <v>369.58</v>
       </c>
-      <c r="H22" s="3">
-        <v>10</v>
+      <c r="H22" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I22" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
@@ -1730,7 +1750,7 @@
         <v>3522.12</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O22" s="5">
         <v>42470</v>
@@ -1738,13 +1758,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3">
         <v>201422</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3">
         <v>1500</v>
@@ -1758,11 +1778,11 @@
       <c r="G23" s="3">
         <v>369.58</v>
       </c>
-      <c r="H23" s="3">
-        <v>10</v>
+      <c r="H23" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="I23" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
         <v>700</v>
@@ -1777,7 +1797,7 @@
         <v>3522.12</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O23" s="5">
         <v>42471</v>
@@ -1785,13 +1805,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3">
         <v>201423</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3">
         <v>2689</v>
@@ -1805,11 +1825,11 @@
       <c r="G24" s="3">
         <v>369.58</v>
       </c>
-      <c r="H24" s="3">
-        <v>10</v>
+      <c r="H24" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="I24" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
         <v>700</v>
@@ -1824,7 +1844,7 @@
         <v>3522.12</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O24" s="5">
         <v>42472</v>
@@ -1832,13 +1852,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3">
         <v>201424</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3">
         <v>5022</v>
@@ -1852,11 +1872,11 @@
       <c r="G25" s="3">
         <v>369.58</v>
       </c>
-      <c r="H25" s="3">
-        <v>10</v>
+      <c r="H25" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="I25" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3">
         <v>700</v>
@@ -1871,7 +1891,7 @@
         <v>3522.12</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O25" s="5">
         <v>42473</v>
@@ -1879,13 +1899,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3">
         <v>201425</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="3">
         <v>5022</v>
@@ -1899,11 +1919,11 @@
       <c r="G26" s="3">
         <v>369.58</v>
       </c>
-      <c r="H26" s="3">
-        <v>10</v>
+      <c r="H26" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I26" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3">
         <v>700</v>
@@ -1918,7 +1938,7 @@
         <v>3522.12</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O26" s="5">
         <v>42474</v>
@@ -1926,13 +1946,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="3">
         <v>201426</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3">
         <v>5022</v>
@@ -1946,11 +1966,11 @@
       <c r="G27" s="3">
         <v>369.58</v>
       </c>
-      <c r="H27" s="3">
-        <v>10</v>
+      <c r="H27" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I27" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J27" s="3">
         <v>700</v>
@@ -1965,7 +1985,7 @@
         <v>3522.12</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O27" s="5">
         <v>42475</v>
@@ -1973,13 +1993,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="3">
         <v>201427</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="3">
         <v>5022</v>
@@ -1993,11 +2013,11 @@
       <c r="G28" s="3">
         <v>369.58</v>
       </c>
-      <c r="H28" s="3">
-        <v>10</v>
+      <c r="H28" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I28" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3">
         <v>700</v>
@@ -2012,7 +2032,7 @@
         <v>3522.12</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O28" s="5">
         <v>42476</v>
@@ -2020,13 +2040,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3">
         <v>201428</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="3">
         <v>5022</v>
@@ -2040,11 +2060,11 @@
       <c r="G29" s="3">
         <v>369.58</v>
       </c>
-      <c r="H29" s="3">
-        <v>10</v>
+      <c r="H29" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I29" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>700</v>
@@ -2059,7 +2079,7 @@
         <v>3522.12</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O29" s="5">
         <v>42477</v>
@@ -2067,13 +2087,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3">
         <v>201429</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3">
         <v>5022</v>
@@ -2087,11 +2107,11 @@
       <c r="G30" s="3">
         <v>369.58</v>
       </c>
-      <c r="H30" s="3">
-        <v>10</v>
+      <c r="H30" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I30" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <v>500</v>
@@ -2106,7 +2126,7 @@
         <v>3522.12</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O30" s="5">
         <v>42478</v>
@@ -2114,13 +2134,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="3">
         <v>201430</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3">
         <v>5022</v>
@@ -2134,11 +2154,11 @@
       <c r="G31" s="3">
         <v>369.58</v>
       </c>
-      <c r="H31" s="3">
-        <v>10</v>
+      <c r="H31" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I31" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
         <v>500</v>
@@ -2153,7 +2173,7 @@
         <v>3522.12</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O31" s="5">
         <v>42479</v>
